--- a/import-files/adamig-1-0.xlsx
+++ b/import-files/adamig-1-0.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1243">
   <si>
     <t>ADAE</t>
   </si>
@@ -2484,9 +2484,6 @@
     <t>The sequence number SEQ of the row (in the SDTM domain identified by SRCDOM) that relates to AVAL or AVALC.</t>
   </si>
   <si>
-    <t>mms:DataElement</t>
-  </si>
-  <si>
     <t>mms:dataElementName</t>
   </si>
   <si>
@@ -3769,6 +3766,18 @@
   </si>
   <si>
     <t>Required Variable</t>
+  </si>
+  <si>
+    <t>mms:Column</t>
+  </si>
+  <si>
+    <t>The variable must be included in the dataset.</t>
+  </si>
+  <si>
+    <t>The variable must be included in the dataset in certain circumstances.</t>
+  </si>
+  <si>
+    <t>The variable may be included in the dataset, but is not required.</t>
   </si>
 </sst>
 </file>
@@ -4703,7 +4712,7 @@
     </row>
     <row r="2" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -4712,7 +4721,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -4735,43 +4744,52 @@
   <cols>
     <col min="1" max="1" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4805,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4819,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -4827,10 +4845,10 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -4850,10 +4868,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -4873,10 +4891,10 @@
     </row>
     <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -4918,13 +4936,13 @@
     <col min="2" max="2" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="85.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -4941,338 +4959,338 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C10" s="8">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C13" s="8">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C14" s="8">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C15" s="8">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C16" s="8">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C20" s="8">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C22" s="8">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C23" s="8">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C24" s="8">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C25" s="8">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,7 +5340,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>811</v>
+        <v>1239</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>16</v>
@@ -5331,7 +5349,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>22</v>
@@ -5340,27 +5358,27 @@
         <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5378,18 +5396,18 @@
         <v>260</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -5407,18 +5425,18 @@
         <v>260</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -5436,18 +5454,18 @@
         <v>260</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5465,18 +5483,18 @@
         <v>260</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -5494,18 +5512,18 @@
         <v>263</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5523,18 +5541,18 @@
         <v>266</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C8" s="12">
         <v>7</v>
@@ -5546,24 +5564,24 @@
         <v>268</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>269</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -5578,27 +5596,27 @@
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>272</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -5613,27 +5631,27 @@
         <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>275</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -5648,27 +5666,27 @@
         <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>278</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -5686,18 +5704,18 @@
         <v>281</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -5715,18 +5733,18 @@
         <v>284</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -5741,27 +5759,27 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -5776,27 +5794,27 @@
         <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
@@ -5811,27 +5829,27 @@
         <v>27</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -5846,27 +5864,27 @@
         <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -5881,27 +5899,27 @@
         <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -5916,27 +5934,27 @@
         <v>27</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -5951,27 +5969,27 @@
         <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>287</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -5986,21 +6004,21 @@
         <v>27</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -6018,18 +6036,18 @@
         <v>304</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -6047,18 +6065,18 @@
         <v>307</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -6076,18 +6094,18 @@
         <v>310</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -6105,18 +6123,18 @@
         <v>313</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -6134,18 +6152,18 @@
         <v>316</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -6163,18 +6181,18 @@
         <v>319</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -6192,18 +6210,18 @@
         <v>322</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -6221,18 +6239,18 @@
         <v>325</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -6250,18 +6268,18 @@
         <v>328</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -6279,18 +6297,18 @@
         <v>331</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -6308,18 +6326,18 @@
         <v>334</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -6337,18 +6355,18 @@
         <v>337</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
@@ -6363,21 +6381,21 @@
         <v>37</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -6395,18 +6413,18 @@
         <v>342</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -6424,18 +6442,18 @@
         <v>345</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
@@ -6453,18 +6471,18 @@
         <v>348</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
@@ -6479,27 +6497,27 @@
         <v>27</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>351</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
@@ -6514,27 +6532,27 @@
         <v>27</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
@@ -6552,18 +6570,18 @@
         <v>357</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -6581,18 +6599,18 @@
         <v>360</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -6610,18 +6628,18 @@
         <v>363</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -6636,27 +6654,27 @@
         <v>27</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>366</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -6671,27 +6689,27 @@
         <v>27</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>369</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
@@ -6709,18 +6727,18 @@
         <v>372</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
@@ -6738,18 +6756,18 @@
         <v>375</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
@@ -6767,18 +6785,18 @@
         <v>378</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -6793,27 +6811,27 @@
         <v>27</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>381</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C49" s="7">
         <v>48</v>
@@ -6828,27 +6846,27 @@
         <v>27</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>384</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C50" s="7">
         <v>49</v>
@@ -6866,18 +6884,18 @@
         <v>387</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C51" s="7">
         <v>50</v>
@@ -6895,18 +6913,18 @@
         <v>390</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C52" s="7">
         <v>51</v>
@@ -6924,18 +6942,18 @@
         <v>393</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C53" s="7">
         <v>52</v>
@@ -6950,27 +6968,27 @@
         <v>27</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>396</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C54" s="7">
         <v>53</v>
@@ -6985,27 +7003,27 @@
         <v>27</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>399</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C55" s="7">
         <v>54</v>
@@ -7023,18 +7041,18 @@
         <v>402</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C56" s="7">
         <v>55</v>
@@ -7052,18 +7070,18 @@
         <v>405</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C57" s="7">
         <v>56</v>
@@ -7081,18 +7099,18 @@
         <v>408</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C58" s="7">
         <v>57</v>
@@ -7107,27 +7125,27 @@
         <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>411</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C59" s="7">
         <v>58</v>
@@ -7142,27 +7160,27 @@
         <v>27</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>414</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C60" s="7">
         <v>59</v>
@@ -7180,18 +7198,18 @@
         <v>417</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C61" s="7">
         <v>60</v>
@@ -7209,18 +7227,18 @@
         <v>420</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C62" s="7">
         <v>61</v>
@@ -7238,18 +7256,18 @@
         <v>423</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C63" s="7">
         <v>62</v>
@@ -7264,27 +7282,27 @@
         <v>27</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>426</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C64" s="7">
         <v>63</v>
@@ -7299,27 +7317,27 @@
         <v>27</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>429</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -7334,21 +7352,21 @@
         <v>27</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C66" s="7">
         <v>2</v>
@@ -7363,21 +7381,21 @@
         <v>27</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C67" s="7">
         <v>3</v>
@@ -7395,18 +7413,18 @@
         <v>430</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
@@ -7424,18 +7442,18 @@
         <v>431</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C69" s="7">
         <v>5</v>
@@ -7453,18 +7471,18 @@
         <v>434</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C70" s="7">
         <v>6</v>
@@ -7482,18 +7500,18 @@
         <v>437</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C71" s="7">
         <v>7</v>
@@ -7511,18 +7529,18 @@
         <v>440</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C72" s="7">
         <v>8</v>
@@ -7540,18 +7558,18 @@
         <v>443</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C73" s="7">
         <v>9</v>
@@ -7569,18 +7587,18 @@
         <v>446</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C74" s="7">
         <v>10</v>
@@ -7598,18 +7616,18 @@
         <v>449</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C75" s="7">
         <v>11</v>
@@ -7627,18 +7645,18 @@
         <v>452</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C76" s="7">
         <v>12</v>
@@ -7656,18 +7674,18 @@
         <v>455</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C77" s="7">
         <v>13</v>
@@ -7685,18 +7703,18 @@
         <v>458</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C78" s="7">
         <v>14</v>
@@ -7714,18 +7732,18 @@
         <v>461</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C79" s="7">
         <v>15</v>
@@ -7743,18 +7761,18 @@
         <v>464</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C80" s="7">
         <v>16</v>
@@ -7772,18 +7790,18 @@
         <v>467</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C81" s="7">
         <v>17</v>
@@ -7798,27 +7816,27 @@
         <v>27</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>470</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C82" s="7">
         <v>18</v>
@@ -7833,27 +7851,27 @@
         <v>27</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>473</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C83" s="7">
         <v>19</v>
@@ -7871,18 +7889,18 @@
         <v>474</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C84" s="7">
         <v>20</v>
@@ -7900,18 +7918,18 @@
         <v>477</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C85" s="7">
         <v>21</v>
@@ -7929,18 +7947,18 @@
         <v>478</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C86" s="7">
         <v>22</v>
@@ -7958,18 +7976,18 @@
         <v>479</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C87" s="7">
         <v>23</v>
@@ -7984,27 +8002,27 @@
         <v>27</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>480</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C88" s="7">
         <v>24</v>
@@ -8019,27 +8037,27 @@
         <v>27</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>481</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C89" s="7">
         <v>25</v>
@@ -8057,18 +8075,18 @@
         <v>482</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C90" s="7">
         <v>26</v>
@@ -8086,18 +8104,18 @@
         <v>485</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C91" s="7">
         <v>27</v>
@@ -8115,18 +8133,18 @@
         <v>486</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C92" s="7">
         <v>28</v>
@@ -8144,18 +8162,18 @@
         <v>487</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C93" s="7">
         <v>29</v>
@@ -8170,27 +8188,27 @@
         <v>27</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>488</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C94" s="7">
         <v>30</v>
@@ -8205,27 +8223,27 @@
         <v>27</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>489</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C95" s="7">
         <v>31</v>
@@ -8243,18 +8261,18 @@
         <v>492</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C96" s="7">
         <v>32</v>
@@ -8266,24 +8284,24 @@
         <v>494</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>495</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C97" s="7">
         <v>33</v>
@@ -8301,18 +8319,18 @@
         <v>498</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C98" s="7">
         <v>34</v>
@@ -8330,18 +8348,18 @@
         <v>501</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C99" s="7">
         <v>35</v>
@@ -8359,18 +8377,18 @@
         <v>504</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C100" s="7">
         <v>36</v>
@@ -8388,18 +8406,18 @@
         <v>505</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C101" s="7">
         <v>37</v>
@@ -8417,18 +8435,18 @@
         <v>131</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C102" s="7">
         <v>38</v>
@@ -8446,18 +8464,18 @@
         <v>506</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C103" s="7">
         <v>39</v>
@@ -8475,18 +8493,18 @@
         <v>509</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C104" s="7">
         <v>40</v>
@@ -8504,18 +8522,18 @@
         <v>512</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C105" s="7">
         <v>41</v>
@@ -8533,18 +8551,18 @@
         <v>515</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C106" s="7">
         <v>42</v>
@@ -8562,18 +8580,18 @@
         <v>518</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C107" s="7">
         <v>43</v>
@@ -8591,18 +8609,18 @@
         <v>521</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C108" s="7">
         <v>44</v>
@@ -8617,27 +8635,27 @@
         <v>27</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>524</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C109" s="7">
         <v>45</v>
@@ -8652,27 +8670,27 @@
         <v>27</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>527</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C110" s="7">
         <v>46</v>
@@ -8690,18 +8708,18 @@
         <v>530</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C111" s="7">
         <v>47</v>
@@ -8719,18 +8737,18 @@
         <v>533</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C112" s="7">
         <v>48</v>
@@ -8748,18 +8766,18 @@
         <v>536</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C113" s="7">
         <v>49</v>
@@ -8774,27 +8792,27 @@
         <v>27</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>539</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C114" s="7">
         <v>50</v>
@@ -8809,27 +8827,27 @@
         <v>27</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>541</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C115" s="7">
         <v>51</v>
@@ -8847,18 +8865,18 @@
         <v>544</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C116" s="7">
         <v>52</v>
@@ -8876,18 +8894,18 @@
         <v>547</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C117" s="7">
         <v>53</v>
@@ -8905,18 +8923,18 @@
         <v>550</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C118" s="7">
         <v>54</v>
@@ -8934,18 +8952,18 @@
         <v>553</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C119" s="7">
         <v>55</v>
@@ -8960,27 +8978,27 @@
         <v>27</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>556</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C120" s="7">
         <v>56</v>
@@ -8995,27 +9013,27 @@
         <v>27</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>559</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C121" s="7">
         <v>57</v>
@@ -9033,18 +9051,18 @@
         <v>562</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C122" s="7">
         <v>58</v>
@@ -9062,18 +9080,18 @@
         <v>565</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C123" s="7">
         <v>59</v>
@@ -9091,18 +9109,18 @@
         <v>568</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C124" s="7">
         <v>60</v>
@@ -9120,18 +9138,18 @@
         <v>571</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C125" s="7">
         <v>61</v>
@@ -9146,27 +9164,27 @@
         <v>27</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>574</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C126" s="7">
         <v>62</v>
@@ -9181,27 +9199,27 @@
         <v>27</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>577</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C127" s="7">
         <v>63</v>
@@ -9219,18 +9237,18 @@
         <v>580</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C128" s="7">
         <v>64</v>
@@ -9248,18 +9266,18 @@
         <v>583</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C129" s="7">
         <v>65</v>
@@ -9277,18 +9295,18 @@
         <v>586</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C130" s="7">
         <v>66</v>
@@ -9306,18 +9324,18 @@
         <v>589</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C131" s="7">
         <v>67</v>
@@ -9332,27 +9350,27 @@
         <v>27</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>592</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C132" s="7">
         <v>68</v>
@@ -9367,27 +9385,27 @@
         <v>27</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>595</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C133" s="7">
         <v>69</v>
@@ -9405,18 +9423,18 @@
         <v>598</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C134" s="7">
         <v>70</v>
@@ -9434,18 +9452,18 @@
         <v>601</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C135" s="7">
         <v>71</v>
@@ -9463,18 +9481,18 @@
         <v>604</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C136" s="7">
         <v>72</v>
@@ -9489,27 +9507,27 @@
         <v>27</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>607</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C137" s="7">
         <v>73</v>
@@ -9527,18 +9545,18 @@
         <v>610</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C138" s="7">
         <v>74</v>
@@ -9556,18 +9574,18 @@
         <v>613</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C139" s="7">
         <v>75</v>
@@ -9579,24 +9597,24 @@
         <v>615</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>616</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C140" s="7">
         <v>76</v>
@@ -9614,18 +9632,18 @@
         <v>619</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C141" s="7">
         <v>77</v>
@@ -9640,21 +9658,21 @@
         <v>27</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C142" s="7">
         <v>78</v>
@@ -9666,24 +9684,24 @@
         <v>623</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>624</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C143" s="7">
         <v>79</v>
@@ -9701,18 +9719,18 @@
         <v>627</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C144" s="7">
         <v>80</v>
@@ -9727,21 +9745,21 @@
         <v>27</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C145" s="7">
         <v>81</v>
@@ -9759,18 +9777,18 @@
         <v>632</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C146" s="7">
         <v>82</v>
@@ -9782,24 +9800,24 @@
         <v>634</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>635</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C147" s="7">
         <v>83</v>
@@ -9817,18 +9835,18 @@
         <v>638</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C148" s="7">
         <v>84</v>
@@ -9840,24 +9858,24 @@
         <v>640</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>641</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C149" s="7">
         <v>85</v>
@@ -9875,18 +9893,18 @@
         <v>644</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C150" s="7">
         <v>86</v>
@@ -9898,24 +9916,24 @@
         <v>646</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C151" s="7">
         <v>87</v>
@@ -9927,24 +9945,24 @@
         <v>648</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>649</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C152" s="7">
         <v>88</v>
@@ -9956,24 +9974,24 @@
         <v>651</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>652</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C153" s="7">
         <v>89</v>
@@ -9991,18 +10009,18 @@
         <v>655</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C154" s="7">
         <v>90</v>
@@ -10020,18 +10038,18 @@
         <v>658</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C155" s="7">
         <v>91</v>
@@ -10049,18 +10067,18 @@
         <v>661</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C156" s="7">
         <v>92</v>
@@ -10075,27 +10093,27 @@
         <v>27</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>664</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C157" s="7">
         <v>93</v>
@@ -10113,18 +10131,18 @@
         <v>667</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C158" s="7">
         <v>94</v>
@@ -10142,18 +10160,18 @@
         <v>670</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C159" s="7">
         <v>95</v>
@@ -10171,18 +10189,18 @@
         <v>673</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C160" s="7">
         <v>96</v>
@@ -10200,18 +10218,18 @@
         <v>676</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C161" s="7">
         <v>97</v>
@@ -10229,18 +10247,18 @@
         <v>679</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C162" s="7">
         <v>98</v>
@@ -10258,18 +10276,18 @@
         <v>682</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C163" s="7">
         <v>99</v>
@@ -10287,18 +10305,18 @@
         <v>685</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="164" spans="1:11" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C164" s="12">
         <v>100</v>
@@ -10316,18 +10334,18 @@
         <v>688</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K164" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C165" s="7">
         <v>101</v>
@@ -10345,18 +10363,18 @@
         <v>691</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C166" s="7">
         <v>102</v>
@@ -10374,18 +10392,18 @@
         <v>692</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C167" s="7">
         <v>103</v>
@@ -10403,18 +10421,18 @@
         <v>695</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C168" s="7">
         <v>104</v>
@@ -10432,18 +10450,18 @@
         <v>698</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C169" s="7">
         <v>105</v>
@@ -10461,18 +10479,18 @@
         <v>701</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C170" s="7">
         <v>106</v>
@@ -10490,18 +10508,18 @@
         <v>704</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C171" s="7">
         <v>107</v>
@@ -10519,18 +10537,18 @@
         <v>707</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C172" s="7">
         <v>108</v>
@@ -10548,18 +10566,18 @@
         <v>710</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C173" s="7">
         <v>109</v>
@@ -10577,18 +10595,18 @@
         <v>713</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C174" s="7">
         <v>110</v>
@@ -10603,27 +10621,27 @@
         <v>27</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>716</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C175" s="7">
         <v>111</v>
@@ -10635,30 +10653,30 @@
         <v>718</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>719</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J175" s="5">
         <v>1</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C176" s="7">
         <v>112</v>
@@ -10673,27 +10691,27 @@
         <v>27</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>720</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C177" s="7">
         <v>113</v>
@@ -10705,30 +10723,30 @@
         <v>722</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>723</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J177" s="5">
         <v>1</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C178" s="7">
         <v>114</v>
@@ -10743,27 +10761,27 @@
         <v>27</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>726</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C179" s="7">
         <v>115</v>
@@ -10775,30 +10793,30 @@
         <v>728</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>729</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J179" s="5">
         <v>1</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C180" s="7">
         <v>116</v>
@@ -10813,27 +10831,27 @@
         <v>27</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>732</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C181" s="7">
         <v>117</v>
@@ -10845,30 +10863,30 @@
         <v>734</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>735</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J181" s="5">
         <v>1</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C182" s="7">
         <v>118</v>
@@ -10883,27 +10901,27 @@
         <v>27</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>738</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C183" s="7">
         <v>119</v>
@@ -10915,30 +10933,30 @@
         <v>740</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>741</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J183" s="5">
         <v>1</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C184" s="7">
         <v>120</v>
@@ -10953,27 +10971,27 @@
         <v>27</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>744</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C185" s="7">
         <v>121</v>
@@ -10985,30 +11003,30 @@
         <v>746</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>747</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J185" s="5">
         <v>1</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C186" s="7">
         <v>122</v>
@@ -11023,27 +11041,27 @@
         <v>27</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>750</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C187" s="7">
         <v>123</v>
@@ -11055,30 +11073,30 @@
         <v>752</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>753</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J187" s="5">
         <v>1</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C188" s="7">
         <v>124</v>
@@ -11093,27 +11111,27 @@
         <v>27</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>756</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C189" s="7">
         <v>125</v>
@@ -11125,30 +11143,30 @@
         <v>758</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>759</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J189" s="5">
         <v>1</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C190" s="7">
         <v>126</v>
@@ -11163,27 +11181,27 @@
         <v>27</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>762</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C191" s="7">
         <v>127</v>
@@ -11195,30 +11213,30 @@
         <v>764</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>765</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J191" s="5">
         <v>1</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C192" s="7">
         <v>128</v>
@@ -11233,27 +11251,27 @@
         <v>27</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>768</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C193" s="7">
         <v>129</v>
@@ -11265,30 +11283,30 @@
         <v>770</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>771</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J193" s="5">
         <v>1</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C194" s="7">
         <v>130</v>
@@ -11303,27 +11321,27 @@
         <v>27</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>774</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C195" s="7">
         <v>131</v>
@@ -11335,30 +11353,30 @@
         <v>776</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>777</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J195" s="5">
         <v>1</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C196" s="7">
         <v>132</v>
@@ -11373,27 +11391,27 @@
         <v>27</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H196" s="5" t="s">
         <v>780</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C197" s="7">
         <v>133</v>
@@ -11405,30 +11423,30 @@
         <v>782</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>783</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J197" s="5">
         <v>1</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C198" s="7">
         <v>134</v>
@@ -11443,27 +11461,27 @@
         <v>27</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>786</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C199" s="7">
         <v>135</v>
@@ -11475,30 +11493,30 @@
         <v>788</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>789</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J199" s="5">
         <v>1</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C200" s="7">
         <v>136</v>
@@ -11513,27 +11531,27 @@
         <v>27</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>792</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C201" s="7">
         <v>137</v>
@@ -11545,30 +11563,30 @@
         <v>794</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>795</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J201" s="5">
         <v>1</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C202" s="7">
         <v>138</v>
@@ -11583,27 +11601,27 @@
         <v>27</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>798</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C203" s="7">
         <v>139</v>
@@ -11618,27 +11636,27 @@
         <v>37</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>801</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C204" s="7">
         <v>140</v>
@@ -11656,18 +11674,18 @@
         <v>804</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C205" s="7">
         <v>141</v>
@@ -11685,18 +11703,18 @@
         <v>807</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C206" s="7">
         <v>142</v>
@@ -11708,24 +11726,24 @@
         <v>809</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>810</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C207" s="7">
         <v>1</v>
@@ -11743,18 +11761,18 @@
         <v>28</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K207" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C208" s="7">
         <v>2</v>
@@ -11772,18 +11790,18 @@
         <v>30</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K208" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C209" s="7">
         <v>3</v>
@@ -11798,21 +11816,21 @@
         <v>27</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K209" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C210" s="7">
         <v>4</v>
@@ -11827,21 +11845,21 @@
         <v>27</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C211" s="7">
         <v>5</v>
@@ -11853,24 +11871,24 @@
         <v>36</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K211" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C212" s="7">
         <v>6</v>
@@ -11888,18 +11906,18 @@
         <v>41</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K212" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C213" s="7">
         <v>7</v>
@@ -11914,27 +11932,27 @@
         <v>27</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K213" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C214" s="7">
         <v>8</v>
@@ -11949,27 +11967,27 @@
         <v>27</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K214" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C215" s="7">
         <v>9</v>
@@ -11984,27 +12002,27 @@
         <v>37</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K215" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C216" s="7">
         <v>10</v>
@@ -12019,27 +12037,27 @@
         <v>27</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C217" s="7">
         <v>11</v>
@@ -12054,27 +12072,27 @@
         <v>37</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C218" s="7">
         <v>12</v>
@@ -12089,27 +12107,27 @@
         <v>37</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C219" s="7">
         <v>13</v>
@@ -12124,27 +12142,27 @@
         <v>27</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C220" s="7">
         <v>14</v>
@@ -12159,27 +12177,27 @@
         <v>37</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C221" s="7">
         <v>15</v>
@@ -12194,27 +12212,27 @@
         <v>27</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C222" s="7">
         <v>16</v>
@@ -12229,27 +12247,27 @@
         <v>37</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C223" s="7">
         <v>17</v>
@@ -12264,27 +12282,27 @@
         <v>27</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C224" s="7">
         <v>18</v>
@@ -12299,27 +12317,27 @@
         <v>37</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J224" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C225" s="7">
         <v>19</v>
@@ -12331,30 +12349,30 @@
         <v>79</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C226" s="7">
         <v>20</v>
@@ -12372,18 +12390,18 @@
         <v>82</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C227" s="7">
         <v>21</v>
@@ -12401,18 +12419,18 @@
         <v>85</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C228" s="7">
         <v>22</v>
@@ -12427,27 +12445,27 @@
         <v>27</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K228" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C229" s="7">
         <v>23</v>
@@ -12462,27 +12480,27 @@
         <v>27</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K229" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C230" s="7">
         <v>24</v>
@@ -12494,30 +12512,30 @@
         <v>93</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J230" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K230" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C231" s="7">
         <v>25</v>
@@ -12535,18 +12553,18 @@
         <v>96</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K231" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C232" s="7">
         <v>26</v>
@@ -12564,18 +12582,18 @@
         <v>99</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K232" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C233" s="7">
         <v>27</v>
@@ -12590,27 +12608,27 @@
         <v>27</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J233" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K233" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C234" s="7">
         <v>28</v>
@@ -12625,27 +12643,27 @@
         <v>27</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K234" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C235" s="7">
         <v>29</v>
@@ -12663,18 +12681,18 @@
         <v>108</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K235" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C236" s="7">
         <v>30</v>
@@ -12692,18 +12710,18 @@
         <v>111</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K236" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C237" s="7">
         <v>31</v>
@@ -12721,18 +12739,18 @@
         <v>114</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K237" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C238" s="7">
         <v>32</v>
@@ -12750,18 +12768,18 @@
         <v>117</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K238" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C239" s="7">
         <v>33</v>
@@ -12776,21 +12794,21 @@
         <v>37</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K239" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C240" s="7">
         <v>34</v>
@@ -12808,18 +12826,18 @@
         <v>122</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K240" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C241" s="7">
         <v>35</v>
@@ -12831,30 +12849,30 @@
         <v>124</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K241" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C242" s="7">
         <v>36</v>
@@ -12872,18 +12890,18 @@
         <v>128</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K242" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C243" s="7">
         <v>37</v>
@@ -12901,18 +12919,18 @@
         <v>131</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K243" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C244" s="7">
         <v>38</v>
@@ -12930,18 +12948,18 @@
         <v>134</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K244" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C245" s="7">
         <v>39</v>
@@ -12956,27 +12974,27 @@
         <v>27</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>137</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K245" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C246" s="7">
         <v>40</v>
@@ -12991,27 +13009,27 @@
         <v>27</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>140</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C247" s="7">
         <v>41</v>
@@ -13026,27 +13044,27 @@
         <v>27</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>143</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C248" s="7">
         <v>42</v>
@@ -13061,27 +13079,27 @@
         <v>27</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>146</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C249" s="7">
         <v>43</v>
@@ -13096,27 +13114,27 @@
         <v>27</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>149</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K249" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C250" s="7">
         <v>44</v>
@@ -13131,27 +13149,27 @@
         <v>27</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>152</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C251" s="7">
         <v>45</v>
@@ -13166,27 +13184,27 @@
         <v>27</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>155</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C252" s="7">
         <v>46</v>
@@ -13201,27 +13219,27 @@
         <v>27</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>158</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C253" s="7">
         <v>47</v>
@@ -13236,27 +13254,27 @@
         <v>27</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C254" s="7">
         <v>48</v>
@@ -13271,27 +13289,27 @@
         <v>27</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C255" s="7">
         <v>49</v>
@@ -13306,27 +13324,27 @@
         <v>27</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>167</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C256" s="7">
         <v>50</v>
@@ -13341,27 +13359,27 @@
         <v>27</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C257" s="7">
         <v>51</v>
@@ -13373,24 +13391,24 @@
         <v>172</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C258" s="7">
         <v>52</v>
@@ -13408,18 +13426,18 @@
         <v>175</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C259" s="7">
         <v>53</v>
@@ -13431,24 +13449,24 @@
         <v>177</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>178</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C260" s="7">
         <v>54</v>
@@ -13466,18 +13484,18 @@
         <v>181</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C261" s="7">
         <v>55</v>
@@ -13492,27 +13510,27 @@
         <v>27</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C262" s="7">
         <v>56</v>
@@ -13527,27 +13545,27 @@
         <v>27</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C263" s="7">
         <v>57</v>
@@ -13562,27 +13580,27 @@
         <v>37</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C264" s="7">
         <v>58</v>
@@ -13597,27 +13615,27 @@
         <v>27</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>190</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K264" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C265" s="7">
         <v>59</v>
@@ -13632,27 +13650,27 @@
         <v>37</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C266" s="7">
         <v>60</v>
@@ -13667,27 +13685,27 @@
         <v>27</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>195</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C267" s="7">
         <v>61</v>
@@ -13702,27 +13720,27 @@
         <v>37</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C268" s="7">
         <v>62</v>
@@ -13737,27 +13755,27 @@
         <v>27</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C269" s="7">
         <v>63</v>
@@ -13772,27 +13790,27 @@
         <v>37</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C270" s="7">
         <v>64</v>
@@ -13807,27 +13825,27 @@
         <v>27</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>204</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K270" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C271" s="7">
         <v>65</v>
@@ -13842,27 +13860,27 @@
         <v>37</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C272" s="7">
         <v>66</v>
@@ -13877,27 +13895,27 @@
         <v>27</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>209</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K272" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C273" s="7">
         <v>67</v>
@@ -13912,27 +13930,27 @@
         <v>37</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K273" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C274" s="7">
         <v>68</v>
@@ -13947,27 +13965,27 @@
         <v>27</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K274" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C275" s="7">
         <v>69</v>
@@ -13982,27 +14000,27 @@
         <v>37</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K275" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C276" s="7">
         <v>70</v>
@@ -14017,27 +14035,27 @@
         <v>27</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K276" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C277" s="7">
         <v>71</v>
@@ -14052,27 +14070,27 @@
         <v>37</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C278" s="7">
         <v>72</v>
@@ -14087,27 +14105,27 @@
         <v>27</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>223</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K278" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C279" s="7">
         <v>73</v>
@@ -14122,27 +14140,27 @@
         <v>37</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K279" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C280" s="7">
         <v>74</v>
@@ -14157,27 +14175,27 @@
         <v>27</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C281" s="7">
         <v>75</v>
@@ -14195,18 +14213,18 @@
         <v>230</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K281" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C282" s="7">
         <v>76</v>
@@ -14224,18 +14242,18 @@
         <v>233</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C283" s="7">
         <v>77</v>
@@ -14250,27 +14268,27 @@
         <v>27</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>236</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C284" s="7">
         <v>78</v>
@@ -14285,27 +14303,27 @@
         <v>37</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>239</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C285" s="7">
         <v>79</v>
@@ -14320,21 +14338,21 @@
         <v>27</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C286" s="7">
         <v>80</v>
@@ -14349,27 +14367,27 @@
         <v>27</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C287" s="7">
         <v>81</v>
@@ -14384,27 +14402,27 @@
         <v>27</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>247</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C288" s="7">
         <v>82</v>
@@ -14419,27 +14437,27 @@
         <v>27</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>250</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C289" s="7">
         <v>83</v>
@@ -14454,27 +14472,27 @@
         <v>27</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>253</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C290" s="7">
         <v>84</v>
@@ -14489,27 +14507,27 @@
         <v>27</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>256</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C291" s="7">
         <v>85</v>
@@ -14524,19 +14542,19 @@
         <v>27</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>259</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/import-files/adamig-1-0.xlsx
+++ b/import-files/adamig-1-0.xlsx
@@ -11,10 +11,10 @@
     <sheet name="adamig-1-0-compl" sheetId="13" r:id="rId2"/>
     <sheet name="adamig-1-0-ds" sheetId="2" r:id="rId3"/>
     <sheet name="adam-1-0-vg" sheetId="8" r:id="rId4"/>
-    <sheet name="adamig-1-0-de" sheetId="9" r:id="rId5"/>
+    <sheet name="adamig-1-0-col" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'adamig-1-0-de'!$A$1:$K$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'adamig-1-0-col'!$A$1:$K$291</definedName>
     <definedName name="IDX" localSheetId="2">'adamig-1-0-ds'!#REF!</definedName>
     <definedName name="sdtmig_3_1_2_export_00_model" localSheetId="0">'adamig-1-0'!$A$1:$D$2</definedName>
     <definedName name="sdtmig_3_1_2_export_00_model" localSheetId="1">'adamig-1-0-compl'!$A$1:$C$2</definedName>

--- a/import-files/adamig-1-0.xlsx
+++ b/import-files/adamig-1-0.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1243">
   <si>
     <t>ADAE</t>
   </si>
@@ -4799,19 +4799,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
@@ -4866,50 +4866,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
